--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb2-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb2-Tgfbr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Tgfb2</t>
+  </si>
+  <si>
+    <t>Tgfbr2</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tgfb2</t>
-  </si>
-  <si>
-    <t>Tgfbr2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H2">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I2">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J2">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.367679</v>
+        <v>33.824428</v>
       </c>
       <c r="N2">
-        <v>58.10303699999999</v>
+        <v>101.473284</v>
       </c>
       <c r="O2">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="P2">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="Q2">
-        <v>23.635650494621</v>
+        <v>79.98426409770133</v>
       </c>
       <c r="R2">
-        <v>212.720854451589</v>
+        <v>719.858376879312</v>
       </c>
       <c r="S2">
-        <v>0.004733423964331514</v>
+        <v>0.02705366277717718</v>
       </c>
       <c r="T2">
-        <v>0.004733423964331515</v>
+        <v>0.02705366277717719</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H3">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I3">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J3">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>79.81755000000001</v>
       </c>
       <c r="O3">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="P3">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="Q3">
-        <v>32.46886587248334</v>
+        <v>62.91456969926667</v>
       </c>
       <c r="R3">
-        <v>292.2197928523501</v>
+        <v>566.2311272934</v>
       </c>
       <c r="S3">
-        <v>0.006502419209932675</v>
+        <v>0.02128005516605217</v>
       </c>
       <c r="T3">
-        <v>0.006502419209932676</v>
+        <v>0.02128005516605217</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H4">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I4">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J4">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.27238933333333</v>
+        <v>19.76484733333333</v>
       </c>
       <c r="N4">
-        <v>75.817168</v>
+        <v>59.294542</v>
       </c>
       <c r="O4">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="P4">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="Q4">
-        <v>30.84155625703289</v>
+        <v>46.73772366409511</v>
       </c>
       <c r="R4">
-        <v>277.574006313296</v>
+        <v>420.639512976856</v>
       </c>
       <c r="S4">
-        <v>0.006176523955519717</v>
+        <v>0.0158084421885387</v>
       </c>
       <c r="T4">
-        <v>0.006176523955519719</v>
+        <v>0.0158084421885387</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H5">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I5">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J5">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.80759633333333</v>
+        <v>5.194707333333334</v>
       </c>
       <c r="N5">
-        <v>32.422789</v>
+        <v>15.584122</v>
       </c>
       <c r="O5">
-        <v>0.07301292992347994</v>
+        <v>0.0349282591522781</v>
       </c>
       <c r="P5">
-        <v>0.07301292992347994</v>
+        <v>0.03492825915227811</v>
       </c>
       <c r="Q5">
-        <v>13.18921950439256</v>
+        <v>12.28386902092178</v>
       </c>
       <c r="R5">
-        <v>118.702975539533</v>
+        <v>110.554821188296</v>
       </c>
       <c r="S5">
-        <v>0.002641356017983436</v>
+        <v>0.004154862882592703</v>
       </c>
       <c r="T5">
-        <v>0.002641356017983436</v>
+        <v>0.004154862882592704</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H6">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I6">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J6">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.48431666666667</v>
+        <v>35.151864</v>
       </c>
       <c r="N6">
-        <v>88.45295</v>
+        <v>105.455592</v>
       </c>
       <c r="O6">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="P6">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="Q6">
-        <v>35.98164776512778</v>
+        <v>83.12323784758401</v>
       </c>
       <c r="R6">
-        <v>323.83482988615</v>
+        <v>748.1091406282561</v>
       </c>
       <c r="S6">
-        <v>0.007205910996456473</v>
+        <v>0.02811538083201865</v>
       </c>
       <c r="T6">
-        <v>0.007205910996456474</v>
+        <v>0.02811538083201865</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H7">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I7">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J7">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.48521533333334</v>
+        <v>28.18336033333333</v>
       </c>
       <c r="N7">
-        <v>109.455646</v>
+        <v>84.55008099999999</v>
       </c>
       <c r="O7">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="P7">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="Q7">
-        <v>44.52530413374023</v>
+        <v>66.6448915577231</v>
       </c>
       <c r="R7">
-        <v>400.727737203662</v>
+        <v>599.8040240195079</v>
       </c>
       <c r="S7">
-        <v>0.008916917334420694</v>
+        <v>0.02254178921771188</v>
       </c>
       <c r="T7">
-        <v>0.008916917334420694</v>
+        <v>0.02254178921771189</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>40.738953</v>
       </c>
       <c r="I8">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J8">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.367679</v>
+        <v>33.824428</v>
       </c>
       <c r="N8">
-        <v>58.10303699999999</v>
+        <v>101.473284</v>
       </c>
       <c r="O8">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="P8">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="Q8">
-        <v>263.006321500029</v>
+        <v>459.3239275146279</v>
       </c>
       <c r="R8">
-        <v>2367.056893500261</v>
+        <v>4133.915347631651</v>
       </c>
       <c r="S8">
-        <v>0.05267129945258901</v>
+        <v>0.1553604922249506</v>
       </c>
       <c r="T8">
-        <v>0.05267129945258902</v>
+        <v>0.1553604922249506</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>40.738953</v>
       </c>
       <c r="I9">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J9">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>79.81755000000001</v>
       </c>
       <c r="O9">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="P9">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="Q9">
-        <v>361.2981575583501</v>
+        <v>361.29815755835</v>
       </c>
       <c r="R9">
-        <v>3251.683418025151</v>
+        <v>3251.68341802515</v>
       </c>
       <c r="S9">
-        <v>0.0723558404980104</v>
+        <v>0.1222045189371185</v>
       </c>
       <c r="T9">
-        <v>0.07235584049801042</v>
+        <v>0.1222045189371185</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>40.738953</v>
       </c>
       <c r="I10">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J10">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.27238933333333</v>
+        <v>19.76484733333333</v>
       </c>
       <c r="N10">
-        <v>75.817168</v>
+        <v>59.294542</v>
       </c>
       <c r="O10">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="P10">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="Q10">
-        <v>343.1902270827893</v>
+        <v>268.3997288549473</v>
       </c>
       <c r="R10">
-        <v>3088.712043745104</v>
+        <v>2415.597559694526</v>
       </c>
       <c r="S10">
-        <v>0.0687294324972247</v>
+        <v>0.09078280379072984</v>
       </c>
       <c r="T10">
-        <v>0.06872943249722471</v>
+        <v>0.09078280379072985</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>40.738953</v>
       </c>
       <c r="I11">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J11">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.80759633333333</v>
+        <v>5.194707333333334</v>
       </c>
       <c r="N11">
-        <v>32.422789</v>
+        <v>15.584122</v>
       </c>
       <c r="O11">
-        <v>0.07301292992347994</v>
+        <v>0.0349282591522781</v>
       </c>
       <c r="P11">
-        <v>0.07301292992347994</v>
+        <v>0.03492825915227811</v>
       </c>
       <c r="Q11">
-        <v>146.7633863555463</v>
+        <v>70.54231263380733</v>
       </c>
       <c r="R11">
-        <v>1320.870477199917</v>
+        <v>634.880813704266</v>
       </c>
       <c r="S11">
-        <v>0.02939175844641493</v>
+        <v>0.02386004246017781</v>
       </c>
       <c r="T11">
-        <v>0.02939175844641493</v>
+        <v>0.02386004246017781</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>40.738953</v>
       </c>
       <c r="I12">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J12">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.48431666666667</v>
+        <v>35.151864</v>
       </c>
       <c r="N12">
-        <v>88.45295</v>
+        <v>105.455592</v>
       </c>
       <c r="O12">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="P12">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="Q12">
-        <v>400.3867303068167</v>
+        <v>477.350045119464</v>
       </c>
       <c r="R12">
-        <v>3603.48057276135</v>
+        <v>4296.150406075176</v>
       </c>
       <c r="S12">
-        <v>0.08018396382472888</v>
+        <v>0.1614575978539687</v>
       </c>
       <c r="T12">
-        <v>0.08018396382472889</v>
+        <v>0.1614575978539688</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>40.738953</v>
       </c>
       <c r="I13">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J13">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.48521533333334</v>
+        <v>28.18336033333333</v>
       </c>
       <c r="N13">
-        <v>109.455646</v>
+        <v>84.55008099999999</v>
       </c>
       <c r="O13">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="P13">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="Q13">
-        <v>495.4564908865154</v>
+        <v>382.7201973339102</v>
       </c>
       <c r="R13">
-        <v>4459.108417978638</v>
+        <v>3444.481776005192</v>
       </c>
       <c r="S13">
-        <v>0.09922323177775677</v>
+        <v>0.1294502521650865</v>
       </c>
       <c r="T13">
-        <v>0.09922323177775677</v>
+        <v>0.1294502521650865</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H14">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I14">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J14">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.367679</v>
+        <v>33.824428</v>
       </c>
       <c r="N14">
-        <v>58.10303699999999</v>
+        <v>101.473284</v>
       </c>
       <c r="O14">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="P14">
-        <v>0.1308423210854057</v>
+        <v>0.2274292488588523</v>
       </c>
       <c r="Q14">
-        <v>366.0367636090119</v>
+        <v>133.0873081798186</v>
       </c>
       <c r="R14">
-        <v>3294.330872481107</v>
+        <v>1197.785773618368</v>
       </c>
       <c r="S14">
-        <v>0.07330482353712049</v>
+        <v>0.04501509385672454</v>
       </c>
       <c r="T14">
-        <v>0.07330482353712049</v>
+        <v>0.04501509385672455</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H15">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I15">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J15">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>79.81755000000001</v>
       </c>
       <c r="O15">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="P15">
-        <v>0.1797412673170669</v>
+        <v>0.1788928546183042</v>
       </c>
       <c r="Q15">
-        <v>502.8335727304667</v>
+        <v>104.6847254397334</v>
       </c>
       <c r="R15">
-        <v>4525.5021545742</v>
+        <v>942.1625289576002</v>
       </c>
       <c r="S15">
-        <v>0.1007006125672104</v>
+        <v>0.03540828051513347</v>
       </c>
       <c r="T15">
-        <v>0.1007006125672104</v>
+        <v>0.03540828051513347</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H16">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I16">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J16">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.27238933333333</v>
+        <v>19.76484733333333</v>
       </c>
       <c r="N16">
-        <v>75.817168</v>
+        <v>59.294542</v>
       </c>
       <c r="O16">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="P16">
-        <v>0.1707328007526035</v>
+        <v>0.132895207653767</v>
       </c>
       <c r="Q16">
-        <v>477.6320177673457</v>
+        <v>77.76776973666489</v>
       </c>
       <c r="R16">
-        <v>4298.688159906112</v>
+        <v>699.9099276299841</v>
       </c>
       <c r="S16">
-        <v>0.09565359072924569</v>
+        <v>0.02630396167449844</v>
       </c>
       <c r="T16">
-        <v>0.09565359072924569</v>
+        <v>0.02630396167449844</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H17">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I17">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J17">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.80759633333333</v>
+        <v>5.194707333333334</v>
       </c>
       <c r="N17">
-        <v>32.422789</v>
+        <v>15.584122</v>
       </c>
       <c r="O17">
-        <v>0.07301292992347994</v>
+        <v>0.0349282591522781</v>
       </c>
       <c r="P17">
-        <v>0.07301292992347994</v>
+        <v>0.03492825915227811</v>
       </c>
       <c r="Q17">
-        <v>204.2566682484751</v>
+        <v>20.43935867223822</v>
       </c>
       <c r="R17">
-        <v>1838.310014236276</v>
+        <v>183.954228050144</v>
       </c>
       <c r="S17">
-        <v>0.04090572453598754</v>
+        <v>0.006913353809507593</v>
       </c>
       <c r="T17">
-        <v>0.04090572453598754</v>
+        <v>0.006913353809507594</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H18">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I18">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J18">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>29.48431666666667</v>
+        <v>35.151864</v>
       </c>
       <c r="N18">
-        <v>88.45295</v>
+        <v>105.455592</v>
       </c>
       <c r="O18">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="P18">
-        <v>0.1991873382599836</v>
+        <v>0.2363546850077859</v>
       </c>
       <c r="Q18">
-        <v>557.2347543497556</v>
+        <v>138.310305122176</v>
       </c>
       <c r="R18">
-        <v>5015.1127891478</v>
+        <v>1244.792746099584</v>
       </c>
       <c r="S18">
-        <v>0.1115953352160877</v>
+        <v>0.04678170632179846</v>
       </c>
       <c r="T18">
-        <v>0.1115953352160876</v>
+        <v>0.04678170632179847</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H19">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I19">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J19">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>36.48521533333334</v>
+        <v>28.18336033333333</v>
       </c>
       <c r="N19">
-        <v>109.455646</v>
+        <v>84.55008099999999</v>
       </c>
       <c r="O19">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="P19">
-        <v>0.2464833426614603</v>
+        <v>0.1894997447090125</v>
       </c>
       <c r="Q19">
-        <v>689.5472679091405</v>
+        <v>110.8916775244569</v>
       </c>
       <c r="R19">
-        <v>6205.925411182264</v>
+        <v>998.0250977201119</v>
       </c>
       <c r="S19">
-        <v>0.1380930710243516</v>
+        <v>0.03750770332621405</v>
       </c>
       <c r="T19">
-        <v>0.1380930710243516</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.102695</v>
-      </c>
-      <c r="I20">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J20">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>19.367679</v>
-      </c>
-      <c r="N20">
-        <v>58.10303699999999</v>
-      </c>
-      <c r="O20">
-        <v>0.1308423210854057</v>
-      </c>
-      <c r="P20">
-        <v>0.1308423210854057</v>
-      </c>
-      <c r="Q20">
-        <v>0.662987931635</v>
-      </c>
-      <c r="R20">
-        <v>5.966891384715</v>
-      </c>
-      <c r="S20">
-        <v>0.0001327741313647316</v>
-      </c>
-      <c r="T20">
-        <v>0.0001327741313647317</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.102695</v>
-      </c>
-      <c r="I21">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J21">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>26.60585</v>
-      </c>
-      <c r="N21">
-        <v>79.81755000000001</v>
-      </c>
-      <c r="O21">
-        <v>0.1797412673170669</v>
-      </c>
-      <c r="P21">
-        <v>0.1797412673170669</v>
-      </c>
-      <c r="Q21">
-        <v>0.9107625885833335</v>
-      </c>
-      <c r="R21">
-        <v>8.196863297250001</v>
-      </c>
-      <c r="S21">
-        <v>0.0001823950419134036</v>
-      </c>
-      <c r="T21">
-        <v>0.0001823950419134036</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.102695</v>
-      </c>
-      <c r="I22">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J22">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>25.27238933333333</v>
-      </c>
-      <c r="N22">
-        <v>75.817168</v>
-      </c>
-      <c r="O22">
-        <v>0.1707328007526035</v>
-      </c>
-      <c r="P22">
-        <v>0.1707328007526035</v>
-      </c>
-      <c r="Q22">
-        <v>0.8651160075288888</v>
-      </c>
-      <c r="R22">
-        <v>7.78604406776</v>
-      </c>
-      <c r="S22">
-        <v>0.0001732535706134247</v>
-      </c>
-      <c r="T22">
-        <v>0.0001732535706134247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.102695</v>
-      </c>
-      <c r="I23">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J23">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>10.80759633333333</v>
-      </c>
-      <c r="N23">
-        <v>32.422789</v>
-      </c>
-      <c r="O23">
-        <v>0.07301292992347994</v>
-      </c>
-      <c r="P23">
-        <v>0.07301292992347994</v>
-      </c>
-      <c r="Q23">
-        <v>0.3699620351505556</v>
-      </c>
-      <c r="R23">
-        <v>3.329658316355001</v>
-      </c>
-      <c r="S23">
-        <v>7.409092309403684E-05</v>
-      </c>
-      <c r="T23">
-        <v>7.409092309403684E-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.102695</v>
-      </c>
-      <c r="I24">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J24">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>29.48431666666667</v>
-      </c>
-      <c r="N24">
-        <v>88.45295</v>
-      </c>
-      <c r="O24">
-        <v>0.1991873382599836</v>
-      </c>
-      <c r="P24">
-        <v>0.1991873382599836</v>
-      </c>
-      <c r="Q24">
-        <v>1.009297300027778</v>
-      </c>
-      <c r="R24">
-        <v>9.083675700250001</v>
-      </c>
-      <c r="S24">
-        <v>0.0002021282227105967</v>
-      </c>
-      <c r="T24">
-        <v>0.0002021282227105968</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.102695</v>
-      </c>
-      <c r="I25">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J25">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>36.48521533333334</v>
-      </c>
-      <c r="N25">
-        <v>109.455646</v>
-      </c>
-      <c r="O25">
-        <v>0.2464833426614603</v>
-      </c>
-      <c r="P25">
-        <v>0.2464833426614603</v>
-      </c>
-      <c r="Q25">
-        <v>1.248949729552222</v>
-      </c>
-      <c r="R25">
-        <v>11.24054756597</v>
-      </c>
-      <c r="S25">
-        <v>0.0002501225249312797</v>
-      </c>
-      <c r="T25">
-        <v>0.0002501225249312797</v>
+        <v>0.03750770332621405</v>
       </c>
     </row>
   </sheetData>
